--- a/analyses/speed/parameters.xlsx
+++ b/analyses/speed/parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fortinj2/speed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fortinj2/crisprVersePaper/analyses/speed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C806DE9A-06EB-8C41-9F79-F40E9DDE6941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E460076-A2D3-5541-A467-C8C5FB60A9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="1580" windowWidth="27080" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Tool</t>
   </si>
@@ -54,51 +54,9 @@
     <t xml:space="preserve"> CCTop</t>
   </si>
   <si>
-    <t xml:space="preserve"> CRISPRseek</t>
-  </si>
-  <si>
-    <t>findgRNAsWithREcutOnly = FALSE</t>
-  </si>
-  <si>
-    <t>findPairedgRNAOnly = FALSE</t>
-  </si>
-  <si>
-    <t>chromToSearch = "all"</t>
-  </si>
-  <si>
-    <t>annotatePaired = FALSE</t>
-  </si>
-  <si>
-    <t>topN = 1000000,</t>
-  </si>
-  <si>
-    <t>annotateExon = FALSE</t>
-  </si>
-  <si>
-    <t>fetchSequence = FALSE</t>
-  </si>
-  <si>
-    <t>max.mismatch = 2</t>
-  </si>
-  <si>
     <t>multicrispr</t>
   </si>
   <si>
-    <t xml:space="preserve">BSgenomeName =  BSgenome.Hsapiens.UCSC.hg38 </t>
-  </si>
-  <si>
-    <t>rule.set = "Root_RuleSet1_2014"</t>
-  </si>
-  <si>
-    <t>enable.multicore = TRUE</t>
-  </si>
-  <si>
-    <t>predictIndelFreq.onTargetOnly = FALSE</t>
-  </si>
-  <si>
-    <t>calculategRNAefficacyForOfftargets = FALSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">bsgenome = BSgenome.Hsapiens.UCSC.hg38 </t>
   </si>
   <si>
@@ -133,6 +91,12 @@
   </si>
   <si>
     <t>n_mismatches=2</t>
+  </si>
+  <si>
+    <t>function: findSpacers + addSpacerAlignmentsIterative</t>
+  </si>
+  <si>
+    <t>function: find_spacers</t>
   </si>
 </sst>
 </file>
@@ -169,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -344,6 +308,37 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -362,9 +357,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -374,9 +366,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -404,17 +393,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -767,193 +762,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10" t="s">
-        <v>26</v>
+      <c r="A3" s="11"/>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="11" t="s">
-        <v>27</v>
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+    <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="2" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analyses/speed/parameters.xlsx
+++ b/analyses/speed/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fortinj2/crisprVersePaper/analyses/speed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E460076-A2D3-5541-A467-C8C5FB60A9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0795B821-FB9E-BF4E-8A8F-6C34FAB7301E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1580" windowWidth="27080" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="1920" windowWidth="27080" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,6 +378,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -391,9 +400,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,12 +410,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +752,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A9" sqref="A9:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -770,7 +770,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -778,25 +778,25 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
@@ -818,7 +818,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -826,52 +826,52 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -884,6 +884,7 @@
     <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
